--- a/tests/jupyter_notebook/fem_tests/test_2d_problem_times.xlsx
+++ b/tests/jupyter_notebook/fem_tests/test_2d_problem_times.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maristi7/coding/otilib/tests/jupyter_notebook/fem_tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69309A23-6F4F-614B-B686-8A64BF4772B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B45DF67-4CC9-5546-A5FD-FEEB9E1AC2D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="460" windowWidth="38400" windowHeight="19840" xr2:uid="{03D3FF57-A530-D14B-9BF9-CE9344A100F3}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19200" xr2:uid="{03D3FF57-A530-D14B-9BF9-CE9344A100F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Conventional writing" sheetId="1" r:id="rId1"/>
     <sheet name="Optimized OPs" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -525,60 +525,24 @@
   </cellStyleXfs>
   <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
@@ -603,6 +567,42 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -921,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B28FEBD-1345-0844-ADE4-C4A4A023250B}">
   <dimension ref="B4:XFD54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -936,777 +936,777 @@
   <sheetData>
     <row r="4" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="30" t="s">
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="24"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="38"/>
     </row>
     <row r="6" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="17"/>
-      <c r="C6" s="37" t="s">
+      <c r="B6" s="33"/>
+      <c r="C6" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="39" t="s">
+      <c r="F6" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="40"/>
-      <c r="H6" s="41" t="s">
+      <c r="G6" s="28"/>
+      <c r="H6" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="38" t="s">
+      <c r="I6" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="38" t="s">
+      <c r="J6" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="42" t="s">
+      <c r="K6" s="30" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="7"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="5"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="21"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="9"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="6"/>
     </row>
     <row r="9" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="21"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="11"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="7"/>
     </row>
     <row r="10" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="17"/>
-      <c r="C10" s="20">
+      <c r="B10" s="33"/>
+      <c r="C10" s="14">
         <v>4.1857300000000004</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="9">
         <v>1.0950000000000001E-3</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="9">
         <v>1.8972599999999999</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="15">
         <v>6.084085</v>
       </c>
-      <c r="G10" s="31"/>
-      <c r="H10" s="34">
+      <c r="G10" s="19"/>
+      <c r="H10" s="22">
         <f>C10/C$10</f>
         <v>1</v>
       </c>
-      <c r="I10" s="35">
+      <c r="I10" s="23">
         <f>D10/D$10</f>
         <v>1</v>
       </c>
-      <c r="J10" s="35">
+      <c r="J10" s="23">
         <f>E10/E$10</f>
         <v>1</v>
       </c>
-      <c r="K10" s="35">
+      <c r="K10" s="23">
         <f>F10/F$10</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="7"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="5"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="21"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="9"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="6"/>
     </row>
     <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="21"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="11"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="7"/>
     </row>
     <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="17"/>
-      <c r="C14" s="20">
+      <c r="B14" s="33"/>
+      <c r="C14" s="14">
         <v>6.1788210000000001</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="9">
         <v>1.5690000000000001E-3</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="9">
         <v>2.5825279999999999</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F14" s="15">
         <v>8.7629180000000009</v>
       </c>
-      <c r="G14" s="31"/>
-      <c r="H14" s="34">
+      <c r="G14" s="19"/>
+      <c r="H14" s="22">
         <f>C14/C$10</f>
         <v>1.4761632976804522</v>
       </c>
-      <c r="I14" s="35">
+      <c r="I14" s="23">
         <f>D14/D$10</f>
         <v>1.4328767123287671</v>
       </c>
-      <c r="J14" s="35">
+      <c r="J14" s="23">
         <f>E14/E$10</f>
         <v>1.3611882398827784</v>
       </c>
-      <c r="K14" s="35">
+      <c r="K14" s="23">
         <f>F14/F$10</f>
         <v>1.4403017051865648</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="7"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="5"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="21"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="9"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="6"/>
     </row>
     <row r="17" spans="2:11 16384:16384" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="21"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="11"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="7"/>
     </row>
     <row r="18" spans="2:11 16384:16384" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="17"/>
-      <c r="C18" s="20">
+      <c r="B18" s="33"/>
+      <c r="C18" s="14">
         <v>7.0251669999999997</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="9">
         <v>1.627E-3</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="9">
         <v>3.3309169999999999</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F18" s="15">
         <v>10.357711</v>
       </c>
-      <c r="G18" s="31"/>
-      <c r="H18" s="34">
+      <c r="G18" s="19"/>
+      <c r="H18" s="22">
         <f>C18/C$10</f>
         <v>1.6783612416472153</v>
       </c>
-      <c r="I18" s="35">
+      <c r="I18" s="23">
         <f>D18/D$10</f>
         <v>1.4858447488584474</v>
       </c>
-      <c r="J18" s="35">
+      <c r="J18" s="23">
         <f>E18/E$10</f>
         <v>1.7556460369163953</v>
       </c>
-      <c r="K18" s="35">
+      <c r="K18" s="23">
         <f>F18/F$10</f>
         <v>1.7024270699702584</v>
       </c>
     </row>
     <row r="19" spans="2:11 16384:16384" x14ac:dyDescent="0.2">
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="7"/>
-      <c r="XFD19" s="2"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="5"/>
+      <c r="XFD19" s="1"/>
     </row>
     <row r="20" spans="2:11 16384:16384" x14ac:dyDescent="0.2">
-      <c r="B20" s="21"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="9"/>
-      <c r="XFD20" s="3"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="6"/>
+      <c r="XFD20" s="2"/>
     </row>
     <row r="21" spans="2:11 16384:16384" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="21"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="11"/>
-      <c r="XFD21" s="3"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="7"/>
+      <c r="XFD21" s="2"/>
     </row>
     <row r="22" spans="2:11 16384:16384" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="17"/>
-      <c r="C22" s="20">
+      <c r="B22" s="33"/>
+      <c r="C22" s="14">
         <v>6.7800019999999996</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="9">
         <v>1.5770000000000001E-3</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="9">
         <v>3.447921</v>
       </c>
-      <c r="F22" s="26">
+      <c r="F22" s="15">
         <v>10.2295</v>
       </c>
-      <c r="G22" s="31"/>
-      <c r="H22" s="34">
+      <c r="G22" s="19"/>
+      <c r="H22" s="22">
         <f>C22/C$10</f>
         <v>1.619789618537268</v>
       </c>
-      <c r="I22" s="35">
+      <c r="I22" s="23">
         <f>D22/D$10</f>
         <v>1.4401826484018265</v>
       </c>
-      <c r="J22" s="35">
+      <c r="J22" s="23">
         <f>E22/E$10</f>
         <v>1.8173160241611588</v>
       </c>
-      <c r="K22" s="35">
+      <c r="K22" s="23">
         <f>F22/F$10</f>
         <v>1.6813538929847298</v>
       </c>
-      <c r="XFD22" s="3"/>
+      <c r="XFD22" s="2"/>
     </row>
     <row r="23" spans="2:11 16384:16384" x14ac:dyDescent="0.2">
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="7"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="5"/>
     </row>
     <row r="24" spans="2:11 16384:16384" x14ac:dyDescent="0.2">
-      <c r="B24" s="21"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="9"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="6"/>
     </row>
     <row r="25" spans="2:11 16384:16384" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="21"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="11"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="7"/>
     </row>
     <row r="26" spans="2:11 16384:16384" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="17"/>
-      <c r="C26" s="20">
+      <c r="B26" s="33"/>
+      <c r="C26" s="14">
         <v>11.694013999999999</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="9">
         <v>2.5400000000000002E-3</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="9">
         <v>21.086438999999999</v>
       </c>
-      <c r="F26" s="26">
+      <c r="F26" s="15">
         <v>32.782992999999998</v>
       </c>
-      <c r="G26" s="31"/>
-      <c r="H26" s="34">
+      <c r="G26" s="19"/>
+      <c r="H26" s="22">
         <f>C26/C$10</f>
         <v>2.7937812520157768</v>
       </c>
-      <c r="I26" s="35">
+      <c r="I26" s="23">
         <f>D26/D$10</f>
         <v>2.3196347031963471</v>
       </c>
-      <c r="J26" s="35">
+      <c r="J26" s="23">
         <f>E26/E$10</f>
         <v>11.11415356883084</v>
       </c>
-      <c r="K26" s="35">
+      <c r="K26" s="23">
         <f>F26/F$10</f>
         <v>5.3883193610871638</v>
       </c>
     </row>
     <row r="27" spans="2:11 16384:16384" x14ac:dyDescent="0.2">
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="7"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="5"/>
     </row>
     <row r="28" spans="2:11 16384:16384" x14ac:dyDescent="0.2">
-      <c r="B28" s="21"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="9"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="6"/>
     </row>
     <row r="29" spans="2:11 16384:16384" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="21"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="11"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="7"/>
     </row>
     <row r="30" spans="2:11 16384:16384" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="17"/>
-      <c r="C30" s="20">
+      <c r="B30" s="33"/>
+      <c r="C30" s="14">
         <v>9.2310169999999996</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="9">
         <v>1.6969999999999999E-3</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E30" s="9">
         <v>2.1832590000000001</v>
       </c>
-      <c r="F30" s="26">
+      <c r="F30" s="15">
         <v>11.415967999999999</v>
       </c>
-      <c r="G30" s="31"/>
-      <c r="H30" s="34">
+      <c r="G30" s="19"/>
+      <c r="H30" s="22">
         <f>C30/C$10</f>
         <v>2.2053541437216446</v>
       </c>
-      <c r="I30" s="35">
+      <c r="I30" s="23">
         <f>D30/D$10</f>
         <v>1.5497716894977167</v>
       </c>
-      <c r="J30" s="35">
+      <c r="J30" s="23">
         <f>E30/E$10</f>
         <v>1.1507431770026249</v>
       </c>
-      <c r="K30" s="35">
+      <c r="K30" s="23">
         <f>F30/F$10</f>
         <v>1.8763656326300502</v>
       </c>
     </row>
     <row r="31" spans="2:11 16384:16384" x14ac:dyDescent="0.2">
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="7"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="5"/>
     </row>
     <row r="32" spans="2:11 16384:16384" x14ac:dyDescent="0.2">
-      <c r="B32" s="21"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="9"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="6"/>
     </row>
     <row r="33" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="21"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="11"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="7"/>
     </row>
     <row r="34" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="17"/>
-      <c r="C34" s="12">
+      <c r="B34" s="33"/>
+      <c r="C34" s="8">
         <v>21.982596000000001</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D34" s="9">
         <v>2.4559999999999998E-3</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E34" s="9">
         <v>3.575936</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F34" s="9">
         <v>25.560987999999998</v>
       </c>
-      <c r="G34" s="31"/>
-      <c r="H34" s="34">
+      <c r="G34" s="19"/>
+      <c r="H34" s="22">
         <f>C34/C$10</f>
         <v>5.2517950273906822</v>
       </c>
-      <c r="I34" s="35">
+      <c r="I34" s="23">
         <f>D34/D$10</f>
         <v>2.2429223744292237</v>
       </c>
-      <c r="J34" s="35">
+      <c r="J34" s="23">
         <f>E34/E$10</f>
         <v>1.884789644012945</v>
       </c>
-      <c r="K34" s="35">
+      <c r="K34" s="23">
         <f>F34/F$10</f>
         <v>4.2012871286315034</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
     </row>
     <row r="49" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
     </row>
     <row r="50" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
     </row>
     <row r="51" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
     </row>
     <row r="52" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
     </row>
     <row r="53" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
     </row>
     <row r="54" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B23:B26"/>
     <mergeCell ref="B27:B30"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="B31:B34"/>
     <mergeCell ref="C5:F5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B23:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1728,19 +1728,19 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="1" t="s">
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
     </row>
     <row r="6" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1749,745 +1749,745 @@
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4" t="s">
+      <c r="G6" s="3"/>
+      <c r="H6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="7"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="8"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="9"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="8"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="11"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="10"/>
-      <c r="C10" s="12">
+      <c r="B10" s="41"/>
+      <c r="C10" s="8">
         <v>3.421376</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="9">
         <v>1.072E-3</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="9">
         <v>1.8650070000000001</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="9">
         <v>5.2874549999999996</v>
       </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="34">
+      <c r="G10" s="9"/>
+      <c r="H10" s="22">
         <f>C10/C$10</f>
         <v>1</v>
       </c>
-      <c r="I10" s="35">
+      <c r="I10" s="23">
         <f>D10/D$10</f>
         <v>1</v>
       </c>
-      <c r="J10" s="35">
+      <c r="J10" s="23">
         <f>E10/E$10</f>
         <v>1</v>
       </c>
-      <c r="K10" s="35">
+      <c r="K10" s="23">
         <f>F10/F$10</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="7"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="8"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="9"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="8"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="11"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="7"/>
     </row>
     <row r="14" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="10"/>
-      <c r="C14" s="12">
+      <c r="B14" s="41"/>
+      <c r="C14" s="8">
         <v>5.4079519999999999</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="9">
         <v>1.5120000000000001E-3</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="9">
         <v>2.5491869999999999</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="9">
         <v>7.9586410000000001</v>
       </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="34">
+      <c r="G14" s="9"/>
+      <c r="H14" s="22">
         <f>C14/C$10</f>
         <v>1.5806365625993752</v>
       </c>
-      <c r="I14" s="35">
+      <c r="I14" s="23">
         <f>D14/D$10</f>
         <v>1.4104477611940298</v>
       </c>
-      <c r="J14" s="35">
+      <c r="J14" s="23">
         <f>E14/E$10</f>
         <v>1.3668511699956085</v>
       </c>
-      <c r="K14" s="35">
+      <c r="K14" s="23">
         <f>F14/F$10</f>
         <v>1.5051931411236599</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="7"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="8"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="9"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="6"/>
     </row>
     <row r="17" spans="2:11 16384:16384" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="8"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="11"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="7"/>
     </row>
     <row r="18" spans="2:11 16384:16384" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="10"/>
-      <c r="C18" s="12">
+      <c r="B18" s="41"/>
+      <c r="C18" s="8">
         <v>5.6786770000000004</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="9">
         <v>1.6739999999999999E-3</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="9">
         <v>3.3220589999999999</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="9">
         <v>9.0024099999999994</v>
       </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="34">
+      <c r="G18" s="9"/>
+      <c r="H18" s="22">
         <f>C18/C$10</f>
         <v>1.6597640832226568</v>
       </c>
-      <c r="I18" s="35">
+      <c r="I18" s="23">
         <f>D18/D$10</f>
         <v>1.5615671641791045</v>
       </c>
-      <c r="J18" s="35">
+      <c r="J18" s="23">
         <f>E18/E$10</f>
         <v>1.781258193668978</v>
       </c>
-      <c r="K18" s="35">
+      <c r="K18" s="23">
         <f>F18/F$10</f>
         <v>1.7025979417318917</v>
       </c>
     </row>
     <row r="19" spans="2:11 16384:16384" x14ac:dyDescent="0.2">
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="7"/>
-      <c r="XFD19" s="2"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="5"/>
+      <c r="XFD19" s="1"/>
     </row>
     <row r="20" spans="2:11 16384:16384" x14ac:dyDescent="0.2">
-      <c r="B20" s="8"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="9"/>
-      <c r="XFD20" s="3"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="6"/>
+      <c r="XFD20" s="2"/>
     </row>
     <row r="21" spans="2:11 16384:16384" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="8"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="11"/>
-      <c r="XFD21" s="3"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="7"/>
+      <c r="XFD21" s="2"/>
     </row>
     <row r="22" spans="2:11 16384:16384" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="10"/>
-      <c r="C22" s="12">
+      <c r="B22" s="41"/>
+      <c r="C22" s="8">
         <v>5.5535410000000001</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="9">
         <v>1.6540000000000001E-3</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="9">
         <v>3.2308219999999999</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="9">
         <v>8.7860169999999993</v>
       </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="34">
+      <c r="G22" s="9"/>
+      <c r="H22" s="22">
         <f>C22/C$10</f>
         <v>1.6231893249967264</v>
       </c>
-      <c r="I22" s="35">
+      <c r="I22" s="23">
         <f>D22/D$10</f>
         <v>1.5429104477611941</v>
       </c>
-      <c r="J22" s="35">
+      <c r="J22" s="23">
         <f>E22/E$10</f>
         <v>1.7323377338530095</v>
       </c>
-      <c r="K22" s="35">
+      <c r="K22" s="23">
         <f>F22/F$10</f>
         <v>1.6616722033568134</v>
       </c>
-      <c r="XFD22" s="3"/>
+      <c r="XFD22" s="2"/>
     </row>
     <row r="23" spans="2:11 16384:16384" x14ac:dyDescent="0.2">
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="7"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="5"/>
     </row>
     <row r="24" spans="2:11 16384:16384" x14ac:dyDescent="0.2">
-      <c r="B24" s="8"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="9"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="6"/>
     </row>
     <row r="25" spans="2:11 16384:16384" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="8"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="11"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="7"/>
     </row>
     <row r="26" spans="2:11 16384:16384" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="10"/>
-      <c r="C26" s="12">
+      <c r="B26" s="41"/>
+      <c r="C26" s="8">
         <v>8.3126139999999999</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="9">
         <v>1.804E-3</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="9">
         <v>21.952234000000001</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="9">
         <v>30.266652000000001</v>
       </c>
-      <c r="G26" s="13"/>
-      <c r="H26" s="34">
+      <c r="G26" s="9"/>
+      <c r="H26" s="22">
         <f>C26/C$10</f>
         <v>2.4296113610430425</v>
       </c>
-      <c r="I26" s="35">
+      <c r="I26" s="23">
         <f>D26/D$10</f>
         <v>1.6828358208955223</v>
       </c>
-      <c r="J26" s="35">
+      <c r="J26" s="23">
         <f>E26/E$10</f>
         <v>11.770590673386213</v>
       </c>
-      <c r="K26" s="35">
+      <c r="K26" s="23">
         <f>F26/F$10</f>
         <v>5.7242382204671252</v>
       </c>
     </row>
     <row r="27" spans="2:11 16384:16384" x14ac:dyDescent="0.2">
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="7"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="5"/>
     </row>
     <row r="28" spans="2:11 16384:16384" x14ac:dyDescent="0.2">
-      <c r="B28" s="8"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="9"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="6"/>
     </row>
     <row r="29" spans="2:11 16384:16384" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="8"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="11"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="7"/>
     </row>
     <row r="30" spans="2:11 16384:16384" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="10"/>
-      <c r="C30" s="12">
+      <c r="B30" s="41"/>
+      <c r="C30" s="8">
         <v>7.980461</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="9">
         <v>1.7390000000000001E-3</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E30" s="9">
         <v>2.0994860000000002</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F30" s="9">
         <v>10.081685999999999</v>
       </c>
-      <c r="G30" s="13"/>
-      <c r="H30" s="34">
+      <c r="G30" s="9"/>
+      <c r="H30" s="22">
         <f>C30/C$10</f>
         <v>2.332529660581006</v>
       </c>
-      <c r="I30" s="35">
+      <c r="I30" s="23">
         <f>D30/D$10</f>
         <v>1.6222014925373134</v>
       </c>
-      <c r="J30" s="35">
+      <c r="J30" s="23">
         <f>E30/E$10</f>
         <v>1.1257255334698477</v>
       </c>
-      <c r="K30" s="35">
+      <c r="K30" s="23">
         <f>F30/F$10</f>
         <v>1.9067180713594727</v>
       </c>
     </row>
     <row r="31" spans="2:11 16384:16384" x14ac:dyDescent="0.2">
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="7"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="5"/>
     </row>
     <row r="32" spans="2:11 16384:16384" x14ac:dyDescent="0.2">
-      <c r="B32" s="8"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="9"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="6"/>
     </row>
     <row r="33" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="8"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="11"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="7"/>
     </row>
     <row r="34" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="10"/>
-      <c r="C34" s="12">
+      <c r="B34" s="41"/>
+      <c r="C34" s="8">
         <v>21.982596000000001</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D34" s="9">
         <v>2.4559999999999998E-3</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E34" s="9">
         <v>3.575936</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F34" s="9">
         <v>25.560987999999998</v>
       </c>
-      <c r="G34" s="13"/>
-      <c r="H34" s="34">
+      <c r="G34" s="9"/>
+      <c r="H34" s="22">
         <f>C34/C$10</f>
         <v>6.4250745898726134</v>
       </c>
-      <c r="I34" s="35">
+      <c r="I34" s="23">
         <f>D34/D$10</f>
         <v>2.2910447761194028</v>
       </c>
-      <c r="J34" s="35">
+      <c r="J34" s="23">
         <f>E34/E$10</f>
         <v>1.9173847604861536</v>
       </c>
-      <c r="K34" s="35">
+      <c r="K34" s="23">
         <f>F34/F$10</f>
         <v>4.8342705517115512</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
     </row>
     <row r="49" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
     </row>
     <row r="50" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
     </row>
     <row r="51" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
     </row>
     <row r="52" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
     </row>
     <row r="53" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
     </row>
     <row r="54" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="9">
